--- a/static/media/orderlist_step2.xlsx
+++ b/static/media/orderlist_step2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\react\mixed_stacking\backend\static\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77359699-7E21-4A1A-98AC-61719C00B9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191F4B5-4C0E-40D9-BE7E-95D19E5EB3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{46E12C68-93FE-4286-BA13-F7717BCD34B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46E12C68-93FE-4286-BA13-F7717BCD34B5}"/>
   </bookViews>
   <sheets>
     <sheet name="原始工單" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>序號</t>
+    <t>Yillang - AI Technology Department Mixing and Stacking Work Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單名稱</t>
+    <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>時間</t>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工單QR-Code</t>
+    <t>ai_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怡振電機-AI技術部混料堆疊工單</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>堆疊工單</t>
+    <t>QR-Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,19 +504,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="4" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="9" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -527,9 +527,9 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -540,28 +540,28 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -572,7 +572,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -583,7 +583,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
